--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N2">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q2">
-        <v>0.02282550579111111</v>
+        <v>0.02163476810555556</v>
       </c>
       <c r="R2">
-        <v>0.20542955212</v>
+        <v>0.19471291295</v>
       </c>
       <c r="S2">
-        <v>0.002932970892781832</v>
+        <v>0.001715188589660036</v>
       </c>
       <c r="T2">
-        <v>0.002932970892781832</v>
+        <v>0.001715188589660036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P3">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q3">
-        <v>0.08629125409666666</v>
+        <v>0.1505565866566667</v>
       </c>
       <c r="R3">
-        <v>0.7766212868699999</v>
+        <v>1.35500927991</v>
       </c>
       <c r="S3">
-        <v>0.01108802314758451</v>
+        <v>0.01193601605858516</v>
       </c>
       <c r="T3">
-        <v>0.01108802314758451</v>
+        <v>0.01193601605858516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H4">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N4">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q4">
-        <v>0.2946183708361111</v>
+        <v>1.190475513303333</v>
       </c>
       <c r="R4">
-        <v>2.651565337525</v>
+        <v>10.71427961973</v>
       </c>
       <c r="S4">
-        <v>0.03785708470379768</v>
+        <v>0.09438002786649782</v>
       </c>
       <c r="T4">
-        <v>0.03785708470379768</v>
+        <v>0.09438002786649782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H5">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N5">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O5">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P5">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q5">
-        <v>0.006099811076666666</v>
+        <v>0.01458396720111111</v>
       </c>
       <c r="R5">
-        <v>0.05489829968999999</v>
+        <v>0.13125570481</v>
       </c>
       <c r="S5">
-        <v>0.0007837972355599947</v>
+        <v>0.001156206251589016</v>
       </c>
       <c r="T5">
-        <v>0.0007837972355599948</v>
+        <v>0.001156206251589016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
         <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N6">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q6">
-        <v>0.2962003995048889</v>
+        <v>0.1609105411144444</v>
       </c>
       <c r="R6">
-        <v>2.665803595544</v>
+        <v>1.44819487003</v>
       </c>
       <c r="S6">
-        <v>0.03806036799922759</v>
+        <v>0.01275686999412051</v>
       </c>
       <c r="T6">
-        <v>0.03806036799922759</v>
+        <v>0.01275686999412051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
         <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P7">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q7">
         <v>1.119778206499333</v>
@@ -883,10 +883,10 @@
         <v>10.078003858494</v>
       </c>
       <c r="S7">
-        <v>0.1438862698636443</v>
+        <v>0.08877519709788063</v>
       </c>
       <c r="T7">
-        <v>0.1438862698636443</v>
+        <v>0.08877519709788062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
         <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N8">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q8">
-        <v>3.823182712433889</v>
+        <v>8.854269114164667</v>
       </c>
       <c r="R8">
-        <v>34.408644411905</v>
+        <v>79.68842202748201</v>
       </c>
       <c r="S8">
-        <v>0.4912611232353089</v>
+        <v>0.7019599785076843</v>
       </c>
       <c r="T8">
-        <v>0.4912611232353089</v>
+        <v>0.7019599785076842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H9">
         <v>1.436459</v>
       </c>
       <c r="I9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N9">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O9">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P9">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q9">
-        <v>0.07915559437533333</v>
+        <v>0.1084695727948889</v>
       </c>
       <c r="R9">
-        <v>0.7124003493780001</v>
+        <v>0.9762261551539999</v>
       </c>
       <c r="S9">
-        <v>0.01017112419888229</v>
+        <v>0.00859938838610975</v>
       </c>
       <c r="T9">
-        <v>0.01017112419888229</v>
+        <v>0.008599388386109748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H10">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I10">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J10">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N10">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q10">
-        <v>0.0888055382408889</v>
+        <v>0.01427602325666667</v>
       </c>
       <c r="R10">
-        <v>0.799249844168</v>
+        <v>0.12848420931</v>
       </c>
       <c r="S10">
-        <v>0.01141109691772013</v>
+        <v>0.001131792680933254</v>
       </c>
       <c r="T10">
-        <v>0.01141109691772013</v>
+        <v>0.001131792680933254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H11">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I11">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J11">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P11">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q11">
-        <v>0.3357271175353334</v>
+        <v>0.09934700118199999</v>
       </c>
       <c r="R11">
-        <v>3.021544057818</v>
+        <v>0.894123010638</v>
       </c>
       <c r="S11">
-        <v>0.04313936666551935</v>
+        <v>0.007876157581765441</v>
       </c>
       <c r="T11">
-        <v>0.04313936666551936</v>
+        <v>0.00787615758176544</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H12">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I12">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J12">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N12">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q12">
-        <v>1.146250306003889</v>
+        <v>0.785552959546</v>
       </c>
       <c r="R12">
-        <v>10.316252754035</v>
+        <v>7.069976635914001</v>
       </c>
       <c r="S12">
-        <v>0.1472878110180104</v>
+        <v>0.06227806400388373</v>
       </c>
       <c r="T12">
-        <v>0.1472878110180104</v>
+        <v>0.06227806400388373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H13">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I13">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J13">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N13">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P13">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q13">
-        <v>0.02373209210733333</v>
+        <v>0.009623447495333332</v>
       </c>
       <c r="R13">
-        <v>0.213588828966</v>
+        <v>0.08661102745799999</v>
       </c>
       <c r="S13">
-        <v>0.0030494630004095</v>
+        <v>0.0007629398779157531</v>
       </c>
       <c r="T13">
-        <v>0.003049463000409501</v>
+        <v>0.0007629398779157531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H14">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I14">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J14">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N14">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q14">
-        <v>0.02560366234311111</v>
+        <v>0.001322046926666667</v>
       </c>
       <c r="R14">
-        <v>0.230432961088</v>
+        <v>0.01189842234</v>
       </c>
       <c r="S14">
-        <v>0.003289951034960337</v>
+        <v>0.0001048109132739677</v>
       </c>
       <c r="T14">
-        <v>0.003289951034960338</v>
+        <v>0.0001048109132739676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H15">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I15">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J15">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P15">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q15">
-        <v>0.09679400549866667</v>
+        <v>0.009200138948</v>
       </c>
       <c r="R15">
-        <v>0.871146049488</v>
+        <v>0.08280125053199999</v>
       </c>
       <c r="S15">
-        <v>0.01243757765201024</v>
+        <v>0.0007293802859317163</v>
       </c>
       <c r="T15">
-        <v>0.01243757765201024</v>
+        <v>0.0007293802859317162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H16">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I16">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J16">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N16">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q16">
-        <v>0.3304772019511111</v>
+        <v>0.072747000844</v>
       </c>
       <c r="R16">
-        <v>2.97429481756</v>
+        <v>0.6547230075960001</v>
       </c>
       <c r="S16">
-        <v>0.0424647770314933</v>
+        <v>0.005767329012765203</v>
       </c>
       <c r="T16">
-        <v>0.0424647770314933</v>
+        <v>0.005767329012765202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H17">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I17">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J17">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N17">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O17">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P17">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q17">
-        <v>0.006842236250666666</v>
+        <v>0.0008911900013333332</v>
       </c>
       <c r="R17">
-        <v>0.061580126256</v>
+        <v>0.008020710011999999</v>
       </c>
       <c r="S17">
-        <v>0.0008791954030896918</v>
+        <v>7.065289140369984E-05</v>
       </c>
       <c r="T17">
-        <v>0.000879195403089692</v>
+        <v>7.065289140369982E-05</v>
       </c>
     </row>
   </sheetData>
